--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:16:28+00:00</t>
+    <t>2025-04-29T12:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:17:00+00:00</t>
+    <t>2025-04-29T16:12:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T16:12:43+00:00</t>
+    <t>2025-04-30T07:00:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T07:00:53+00:00</t>
+    <t>2025-04-30T07:06:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T07:06:28+00:00</t>
+    <t>2025-04-30T13:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,9 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This Logical Mode describes the relevant attributes on the **Author** class within IHE ITI XDS.
-More details are to be retrieved from IHE ITI on www.ihe.net.
-(Focus for this LM is on the coded attributes.)</t>
+    <t>Model logique d'un auteur</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1177,7 +1175,7 @@
         <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1250,7 +1248,7 @@
         <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T13:43:05+00:00</t>
+    <t>2025-04-30T14:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T14:55:26+00:00</t>
+    <t>2025-04-30T15:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:08:51+00:00</t>
+    <t>2025-04-30T15:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:42:49+00:00</t>
+    <t>2025-04-30T15:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:49:42+00:00</t>
+    <t>2025-04-30T16:02:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:02:39+00:00</t>
+    <t>2025-05-01T10:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01T10:35:31+00:00</t>
+    <t>2025-05-01T16:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Model logique d'un auteur</t>
+    <t xml:space="preserve">Modèle logique d'un auteur.
+Représente les personnes physiques et/ou les systèmes (dispositifs, automates, services numériques référencés…) auteurs d’un document ou d'un lot de soummission. 
+L’auteur peut être : 
+- Un professionnel (personne physique) via son logiciel de professionnel, 
+- Le patient/usager (personne physique) via Mon espace Santé, 
+- Un système de structure (dispositif, automate, appareil connecté…), 
+- Un SNR (Service Numérique Référencé), </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -253,17 +259,170 @@
     <t>1</t>
   </si>
   <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Cet attribut représente la structure de l’auteur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Author.institution.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>institution of author</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Author.institution.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Author.institution.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Author.institution.XON1</t>
+  </si>
+  <si>
+    <t>Nom de la structure</t>
+  </si>
+  <si>
+    <t>Author.institution.XON6</t>
+  </si>
+  <si>
+    <t>Autorité d’affectation</t>
+  </si>
+  <si>
+    <t>Author.institution.XON7</t>
+  </si>
+  <si>
+    <t>Type d’identifiant</t>
+  </si>
+  <si>
+    <t>Author.institution.XON10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {elementdefinition-identifier}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifiant de la structure (Struct_IdNat)</t>
   </si>
   <si>
     <t>Author.person</t>
   </si>
   <si>
     <t>author</t>
+  </si>
+  <si>
+    <t>Author.person.id</t>
+  </si>
+  <si>
+    <t>Author.person.extension</t>
+  </si>
+  <si>
+    <t>Author.person.modifierExtension</t>
+  </si>
+  <si>
+    <t>Author.person.XCN1</t>
+  </si>
+  <si>
+    <t>Identifiant (PS_IdNat)</t>
+  </si>
+  <si>
+    <t>Author.person.XCN2</t>
+  </si>
+  <si>
+    <t>Nom d'exercice du professionnel, nom du patient, nom du système.</t>
+  </si>
+  <si>
+    <t>Author.person.XCN3</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
+  </si>
+  <si>
+    <t>Author.person.XCN9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autorité d’affectation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autorité d’affectation</t>
+  </si>
+  <si>
+    <t>Author.person.XCN10</t>
+  </si>
+  <si>
+    <t>Type de nom : Valeur en fonction de l’auteur : • D, pour les personnes physiques, • U, pour les systèmes.</t>
+  </si>
+  <si>
+    <t>Author.person.XCN13</t>
   </si>
   <si>
     <t>Author.role</t>
@@ -273,7 +432,7 @@
 </t>
   </si>
   <si>
-    <t>role of the author of this document</t>
+    <t xml:space="preserve">Cet attribut représente le rôle fonctionnel joué par l’auteur vis-à-vis du patient/usager lors de la création du document, c'est-à-dire à quel titre l’auteur est intervenu vis-à-vis du patient (ex : médecin traitant, Responsable de l'admission, Membre de l'équipe de soins, etc.). </t>
   </si>
   <si>
     <t>**Author Role**</t>
@@ -288,19 +447,13 @@
     <t>Author.specialty</t>
   </si>
   <si>
-    <t>specialty of the author for this document</t>
+    <t xml:space="preserve">Cet attribut représente la profession éventuellement associée au savoir-faire de l’auteur professionnel caractérisé par sa profession ou la profession associée au genre d’activité pour l’auteur professionnel caractérisé par son rôle. </t>
   </si>
   <si>
     <t>**AutorSpecialty**</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J56-AuthorSpecialty-DMP/FHIR/JDV-J56-AuthorSpecialty-DMP</t>
-  </si>
-  <si>
-    <t>Author.telecommunication</t>
-  </si>
-  <si>
-    <t>contact information</t>
   </si>
 </sst>
 </file>
@@ -605,7 +758,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -614,21 +767,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="32.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -642,10 +795,10 @@
     <col min="26" max="26" width="77.0" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="21.828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -958,15 +1111,15 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -989,13 +1142,13 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1046,7 +1199,7 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1063,21 +1216,21 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1089,15 +1242,17 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>72</v>
@@ -1122,81 +1277,87 @@
         <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="Y5" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z5" t="s" s="2">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P6" t="s" s="2">
         <v>72</v>
       </c>
@@ -1220,11 +1381,13 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z6" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>72</v>
@@ -1242,27 +1405,27 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1270,7 +1433,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -1285,13 +1448,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1342,18 +1505,1520 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AG7" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
+      <c r="AH13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:14+00:00</t>
+    <t>2025-05-02T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:57+00:00</t>
+    <t>2025-05-02T14:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:15:44+00:00</t>
+    <t>2025-05-02T17:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,8 @@
 - Un professionnel (personne physique) via son logiciel de professionnel, 
 - Le patient/usager (personne physique) via Mon espace Santé, 
 - Un système de structure (dispositif, automate, appareil connecté…), 
-- Un SNR (Service Numérique Référencé), </t>
+- Un SNR (Service Numérique Référencé), 
+author est un ensemble constitué des sous-attributs authorInstitution, authorPerson, authorRole et authorSpecialty et ne porte pas de valeur par lui-même. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -269,7 +270,7 @@
     <t>Author.person</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPerson
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonSNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonSystem)
 </t>
   </si>
   <si>
@@ -628,7 +629,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T17:24:18+00:00</t>
+    <t>2025-05-03T11:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,6 +238,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: null</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -296,6 +299,12 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
   </si>
   <si>
+    <t>author/functionCode@displayName</t>
+  </si>
+  <si>
+    <t>Cet attribut n'a pas besoin d’être alimenté par un élément du DICOM KOS</t>
+  </si>
+  <si>
     <t>Author.specialty</t>
   </si>
   <si>
@@ -306,6 +315,12 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J56-AuthorSpecialty-DMP/FHIR/JDV-J56-AuthorSpecialty-DMP</t>
+  </si>
+  <si>
+    <t>author/assignedAuthor/code@code</t>
+  </si>
+  <si>
+    <t>Cette métadonnée peut ne pas être renseignée dans le cas d’un DICOM KOS.   Si elle contient une valeur, elle devra contenir le code : 'DISPOSITIF' du JDV_J01_XdsAuthorSpecialty_CISIS</t>
   </si>
 </sst>
 </file>
@@ -610,7 +625,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -654,6 +669,8 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="37" max="37" width="28.83984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="146.93359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -765,6 +782,12 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -775,26 +798,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -805,461 +828,491 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:33:40+00:00</t>
+    <t>2025-05-03T15:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,7 +88,7 @@
 - Le patient/usager (personne physique) via Mon espace Santé, 
 - Un système de structure (dispositif, automate, appareil connecté…), 
 - Un SNR (Service Numérique Référencé), 
-author est un ensemble constitué des sous-attributs authorInstitution, authorPerson, authorRole et authorSpecialty et ne porte pas de valeur par lui-même. </t>
+author est un ensemble constitué des sous-attributs authorInstitution, ActorXDS, authorRole et authorSpecialty et ne porte pas de valeur par lui-même. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -273,7 +273,7 @@
     <t>Author.person</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonSNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/AuthorPersonSystem)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem)
 </t>
   </si>
   <si>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="94">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,7 +88,7 @@
 - Le patient/usager (personne physique) via Mon espace Santé, 
 - Un système de structure (dispositif, automate, appareil connecté…), 
 - Un SNR (Service Numérique Référencé), 
-author est un ensemble constitué des sous-attributs authorInstitution, ActorXDS, authorRole et authorSpecialty et ne porte pas de valeur par lui-même. </t>
+author est un ensemble constitué des sous-attributs authorInstitution , authorPerson, authorRole et authorSpecialty et ne porte pas de valeur par lui-même. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: null</t>
   </si>
   <si>
     <t/>
@@ -299,12 +296,6 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
   </si>
   <si>
-    <t>author/functionCode@displayName</t>
-  </si>
-  <si>
-    <t>Cet attribut n'a pas besoin d’être alimenté par un élément du DICOM KOS</t>
-  </si>
-  <si>
     <t>Author.specialty</t>
   </si>
   <si>
@@ -315,12 +306,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J56-AuthorSpecialty-DMP/FHIR/JDV-J56-AuthorSpecialty-DMP</t>
-  </si>
-  <si>
-    <t>author/assignedAuthor/code@code</t>
-  </si>
-  <si>
-    <t>Cette métadonnée peut ne pas être renseignée dans le cas d’un DICOM KOS.   Si elle contient une valeur, elle devra contenir le code : 'DISPOSITIF' du JDV_J01_XdsAuthorSpecialty_CISIS</t>
   </si>
 </sst>
 </file>
@@ -625,7 +610,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -669,8 +654,6 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.83984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="146.93359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -782,12 +765,6 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AK1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>72</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -798,26 +775,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -828,491 +805,461 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s" s="2">
+      <c r="AH2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L3" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="M3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG3" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF3" t="s" s="2">
+      <c r="AH3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AB5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,7 +88,7 @@
 - Le patient/usager (personne physique) via Mon espace Santé, 
 - Un système de structure (dispositif, automate, appareil connecté…), 
 - Un SNR (Service Numérique Référencé), 
-author est un ensemble constitué des sous-attributs authorInstitution , authorPerson, authorRole et authorSpecialty et ne porte pas de valeur par lui-même. </t>
+**author** est un ensemble constitué des sous-attributs **authorInstitution** , **authorPerson**, **authorRole** et **authorSpecialty** et ne porte pas de valeur par lui-même. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -267,14 +267,11 @@
     <t>Cet attribut représente la structure de l’auteur.</t>
   </si>
   <si>
-    <t>Author.person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem)
-</t>
-  </si>
-  <si>
-    <t>author</t>
+    <t>Author.person[x]</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatienthttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSNRhttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem</t>
   </si>
   <si>
     <t>Author.role</t>
@@ -629,7 +626,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="189.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -997,10 +994,10 @@
         <v>82</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1068,10 +1065,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1094,13 +1091,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1127,11 +1124,11 @@
         <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>72</v>
@@ -1149,7 +1146,7 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
@@ -1166,10 +1163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1192,13 +1189,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1225,11 +1222,11 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>72</v>
@@ -1247,7 +1244,7 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -287,7 +287,7 @@
     <t>**Author Role**</t>
   </si>
   <si>
-    <t>required</t>
+    <t>preferred</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
@@ -302,7 +302,7 @@
     <t>**AutorSpecialty**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J56-AuthorSpecialty-DMP/FHIR/JDV-J56-AuthorSpecialty-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J01-XdsAuthorSpecialty-CISIS/FHIR/JDV-J01-XdsAuthorSpecialty-CISIS</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.0" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="83.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-Author.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Author.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
